--- a/유니티.xlsx
+++ b/유니티.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA24088-4D92-482B-8319-978A3EF35BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD212E0-C1C1-480E-B6DF-30DFF195187E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{23A12DF9-93C0-48B6-B8FD-3C146E2DFC71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="15270" activeTab="3" xr2:uid="{23A12DF9-93C0-48B6-B8FD-3C146E2DFC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="600">
   <si>
     <t>1-1 맵 디자인 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2248,6 +2248,10 @@
   </si>
   <si>
     <t>반성공?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀 오브젝트 적용하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,11 +2763,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -32744,12 +32748,12 @@
         <v>434</v>
       </c>
       <c r="R242" s="54"/>
-      <c r="S242" s="88" t="s">
+      <c r="S242" s="87" t="s">
         <v>425</v>
       </c>
-      <c r="T242" s="88"/>
-      <c r="U242" s="88"/>
-      <c r="V242" s="88"/>
+      <c r="T242" s="87"/>
+      <c r="U242" s="87"/>
+      <c r="V242" s="87"/>
       <c r="W242" s="2" t="s">
         <v>423</v>
       </c>
@@ -32788,7 +32792,7 @@
       <c r="BZ242" s="39"/>
     </row>
     <row r="243" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A243" s="87">
+      <c r="A243" s="88">
         <v>1</v>
       </c>
       <c r="B243" s="72">
@@ -32837,7 +32841,7 @@
       <c r="P243" s="85" t="s">
         <v>550</v>
       </c>
-      <c r="Q243" s="87">
+      <c r="Q243" s="88">
         <v>1</v>
       </c>
       <c r="R243" s="57"/>
@@ -32900,7 +32904,7 @@
       <c r="BZ243" s="39"/>
     </row>
     <row r="244" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A244" s="87"/>
+      <c r="A244" s="88"/>
       <c r="B244" s="72">
         <v>2</v>
       </c>
@@ -32944,7 +32948,7 @@
       <c r="N244" s="72"/>
       <c r="O244" s="82"/>
       <c r="P244" s="82"/>
-      <c r="Q244" s="87"/>
+      <c r="Q244" s="88"/>
       <c r="R244" s="57"/>
       <c r="S244" s="11">
         <f>S243+6</f>
@@ -33008,7 +33012,7 @@
       <c r="BZ244" s="39"/>
     </row>
     <row r="245" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A245" s="87"/>
+      <c r="A245" s="88"/>
       <c r="B245" s="72">
         <v>3</v>
       </c>
@@ -33052,7 +33056,7 @@
       <c r="N245" s="72"/>
       <c r="O245" s="82"/>
       <c r="P245" s="82"/>
-      <c r="Q245" s="87"/>
+      <c r="Q245" s="88"/>
       <c r="R245" s="57"/>
       <c r="S245" s="11">
         <f t="shared" ref="S245:S272" si="196">S244+6</f>
@@ -33116,7 +33120,7 @@
       <c r="BZ245" s="39"/>
     </row>
     <row r="246" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A246" s="87">
+      <c r="A246" s="88">
         <v>2</v>
       </c>
       <c r="B246" s="72">
@@ -33166,7 +33170,7 @@
       <c r="P246" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="Q246" s="87">
+      <c r="Q246" s="88">
         <v>2</v>
       </c>
       <c r="R246" s="57"/>
@@ -33232,7 +33236,7 @@
       <c r="BZ246" s="39"/>
     </row>
     <row r="247" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A247" s="87"/>
+      <c r="A247" s="88"/>
       <c r="B247" s="72">
         <v>5</v>
       </c>
@@ -33276,7 +33280,7 @@
       <c r="N247" s="72"/>
       <c r="O247" s="82"/>
       <c r="P247" s="82"/>
-      <c r="Q247" s="87"/>
+      <c r="Q247" s="88"/>
       <c r="R247" s="57"/>
       <c r="S247" s="11">
         <f t="shared" si="196"/>
@@ -33340,7 +33344,7 @@
       <c r="BZ247" s="39"/>
     </row>
     <row r="248" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A248" s="87"/>
+      <c r="A248" s="88"/>
       <c r="B248" s="72">
         <v>6</v>
       </c>
@@ -33384,7 +33388,7 @@
       <c r="N248" s="72"/>
       <c r="O248" s="82"/>
       <c r="P248" s="82"/>
-      <c r="Q248" s="87"/>
+      <c r="Q248" s="88"/>
       <c r="R248" s="57"/>
       <c r="S248" s="11">
         <f t="shared" si="196"/>
@@ -33448,7 +33452,7 @@
       <c r="BZ248" s="39"/>
     </row>
     <row r="249" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A249" s="87">
+      <c r="A249" s="88">
         <v>3</v>
       </c>
       <c r="B249" s="72">
@@ -33498,7 +33502,7 @@
       <c r="P249" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="Q249" s="87">
+      <c r="Q249" s="88">
         <v>3</v>
       </c>
       <c r="R249" s="57"/>
@@ -33564,7 +33568,7 @@
       <c r="BZ249" s="39"/>
     </row>
     <row r="250" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A250" s="87"/>
+      <c r="A250" s="88"/>
       <c r="B250" s="72">
         <v>8</v>
       </c>
@@ -33608,7 +33612,7 @@
       <c r="N250" s="78"/>
       <c r="O250" s="82"/>
       <c r="P250" s="82"/>
-      <c r="Q250" s="87"/>
+      <c r="Q250" s="88"/>
       <c r="R250" s="57"/>
       <c r="S250" s="11">
         <f t="shared" si="196"/>
@@ -33672,7 +33676,7 @@
       <c r="BZ250" s="39"/>
     </row>
     <row r="251" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A251" s="87"/>
+      <c r="A251" s="88"/>
       <c r="B251" s="72">
         <v>9</v>
       </c>
@@ -33716,7 +33720,7 @@
       <c r="N251" s="72"/>
       <c r="O251" s="82"/>
       <c r="P251" s="82"/>
-      <c r="Q251" s="87"/>
+      <c r="Q251" s="88"/>
       <c r="R251" s="57"/>
       <c r="S251" s="11">
         <f t="shared" si="196"/>
@@ -33780,7 +33784,7 @@
       <c r="BZ251" s="39"/>
     </row>
     <row r="252" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A252" s="87">
+      <c r="A252" s="88">
         <v>4</v>
       </c>
       <c r="B252" s="72">
@@ -33830,7 +33834,7 @@
       <c r="P252" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="Q252" s="87">
+      <c r="Q252" s="88">
         <v>4</v>
       </c>
       <c r="R252" s="57"/>
@@ -33896,7 +33900,7 @@
       <c r="BZ252" s="39"/>
     </row>
     <row r="253" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A253" s="87"/>
+      <c r="A253" s="88"/>
       <c r="B253" s="72">
         <v>11</v>
       </c>
@@ -33940,7 +33944,7 @@
       <c r="N253" s="72"/>
       <c r="O253" s="82"/>
       <c r="P253" s="82"/>
-      <c r="Q253" s="87"/>
+      <c r="Q253" s="88"/>
       <c r="R253" s="57"/>
       <c r="S253" s="11">
         <f t="shared" si="196"/>
@@ -34004,7 +34008,7 @@
       <c r="BZ253" s="39"/>
     </row>
     <row r="254" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A254" s="87"/>
+      <c r="A254" s="88"/>
       <c r="B254" s="72">
         <v>12</v>
       </c>
@@ -34048,7 +34052,7 @@
       <c r="N254" s="72"/>
       <c r="O254" s="82"/>
       <c r="P254" s="82"/>
-      <c r="Q254" s="87"/>
+      <c r="Q254" s="88"/>
       <c r="R254" s="57"/>
       <c r="S254" s="11">
         <f t="shared" si="196"/>
@@ -34112,7 +34116,7 @@
       <c r="BZ254" s="39"/>
     </row>
     <row r="255" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A255" s="87">
+      <c r="A255" s="88">
         <v>5</v>
       </c>
       <c r="B255" s="72">
@@ -34162,7 +34166,7 @@
       <c r="P255" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="Q255" s="87">
+      <c r="Q255" s="88">
         <v>5</v>
       </c>
       <c r="R255" s="57"/>
@@ -34228,7 +34232,7 @@
       <c r="BZ255" s="39"/>
     </row>
     <row r="256" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A256" s="87"/>
+      <c r="A256" s="88"/>
       <c r="B256" s="72">
         <v>14</v>
       </c>
@@ -34272,7 +34276,7 @@
       <c r="N256" s="72"/>
       <c r="O256" s="82"/>
       <c r="P256" s="82"/>
-      <c r="Q256" s="87"/>
+      <c r="Q256" s="88"/>
       <c r="R256" s="57"/>
       <c r="S256" s="11">
         <f t="shared" si="196"/>
@@ -34336,7 +34340,7 @@
       <c r="BZ256" s="39"/>
     </row>
     <row r="257" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A257" s="87"/>
+      <c r="A257" s="88"/>
       <c r="B257" s="72">
         <v>15</v>
       </c>
@@ -34380,7 +34384,7 @@
       <c r="N257" s="72"/>
       <c r="O257" s="82"/>
       <c r="P257" s="82"/>
-      <c r="Q257" s="87"/>
+      <c r="Q257" s="88"/>
       <c r="R257" s="57"/>
       <c r="S257" s="11">
         <f t="shared" si="196"/>
@@ -34444,7 +34448,7 @@
       <c r="BZ257" s="39"/>
     </row>
     <row r="258" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A258" s="87">
+      <c r="A258" s="88">
         <v>6</v>
       </c>
       <c r="B258" s="72">
@@ -34494,7 +34498,7 @@
       <c r="P258" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="Q258" s="87">
+      <c r="Q258" s="88">
         <v>6</v>
       </c>
       <c r="R258" s="57"/>
@@ -34560,7 +34564,7 @@
       <c r="BZ258" s="39"/>
     </row>
     <row r="259" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A259" s="87"/>
+      <c r="A259" s="88"/>
       <c r="B259" s="72">
         <v>17</v>
       </c>
@@ -34604,7 +34608,7 @@
       <c r="N259" s="72"/>
       <c r="O259" s="82"/>
       <c r="P259" s="82"/>
-      <c r="Q259" s="87"/>
+      <c r="Q259" s="88"/>
       <c r="R259" s="57"/>
       <c r="S259" s="11">
         <f t="shared" si="196"/>
@@ -34668,7 +34672,7 @@
       <c r="BZ259" s="39"/>
     </row>
     <row r="260" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A260" s="87"/>
+      <c r="A260" s="88"/>
       <c r="B260" s="72">
         <v>18</v>
       </c>
@@ -34712,7 +34716,7 @@
       <c r="N260" s="72"/>
       <c r="O260" s="82"/>
       <c r="P260" s="82"/>
-      <c r="Q260" s="87"/>
+      <c r="Q260" s="88"/>
       <c r="R260" s="57"/>
       <c r="S260" s="11">
         <f t="shared" si="196"/>
@@ -34776,7 +34780,7 @@
       <c r="BZ260" s="39"/>
     </row>
     <row r="261" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A261" s="87">
+      <c r="A261" s="88">
         <v>7</v>
       </c>
       <c r="B261" s="25">
@@ -34826,7 +34830,7 @@
       <c r="P261" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="Q261" s="87">
+      <c r="Q261" s="88">
         <v>7</v>
       </c>
       <c r="R261" s="57"/>
@@ -34892,7 +34896,7 @@
       <c r="BZ261" s="39"/>
     </row>
     <row r="262" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A262" s="87"/>
+      <c r="A262" s="88"/>
       <c r="B262" s="25">
         <v>20</v>
       </c>
@@ -34936,7 +34940,7 @@
       <c r="N262" s="72"/>
       <c r="O262" s="82"/>
       <c r="P262" s="82"/>
-      <c r="Q262" s="87"/>
+      <c r="Q262" s="88"/>
       <c r="R262" s="57"/>
       <c r="S262" s="11">
         <f t="shared" si="196"/>
@@ -35000,7 +35004,7 @@
       <c r="BZ262" s="39"/>
     </row>
     <row r="263" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A263" s="87"/>
+      <c r="A263" s="88"/>
       <c r="B263" s="25">
         <v>21</v>
       </c>
@@ -35044,7 +35048,7 @@
       <c r="N263" s="72"/>
       <c r="O263" s="82"/>
       <c r="P263" s="82"/>
-      <c r="Q263" s="87"/>
+      <c r="Q263" s="88"/>
       <c r="R263" s="57"/>
       <c r="S263" s="11">
         <f t="shared" si="196"/>
@@ -35108,7 +35112,7 @@
       <c r="BZ263" s="39"/>
     </row>
     <row r="264" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A264" s="87">
+      <c r="A264" s="88">
         <v>8</v>
       </c>
       <c r="B264" s="25">
@@ -35158,7 +35162,7 @@
       <c r="P264" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="Q264" s="87">
+      <c r="Q264" s="88">
         <v>8</v>
       </c>
       <c r="R264" s="57"/>
@@ -35224,7 +35228,7 @@
       <c r="BZ264" s="39"/>
     </row>
     <row r="265" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A265" s="87"/>
+      <c r="A265" s="88"/>
       <c r="B265" s="25">
         <v>23</v>
       </c>
@@ -35268,7 +35272,7 @@
       <c r="N265" s="72"/>
       <c r="O265" s="82"/>
       <c r="P265" s="82"/>
-      <c r="Q265" s="87"/>
+      <c r="Q265" s="88"/>
       <c r="R265" s="57"/>
       <c r="S265" s="11">
         <f t="shared" si="196"/>
@@ -35332,7 +35336,7 @@
       <c r="BZ265" s="39"/>
     </row>
     <row r="266" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A266" s="87"/>
+      <c r="A266" s="88"/>
       <c r="B266" s="25">
         <v>24</v>
       </c>
@@ -35376,7 +35380,7 @@
       <c r="N266" s="72"/>
       <c r="O266" s="82"/>
       <c r="P266" s="82"/>
-      <c r="Q266" s="87"/>
+      <c r="Q266" s="88"/>
       <c r="R266" s="57"/>
       <c r="S266" s="11">
         <f t="shared" si="196"/>
@@ -35440,7 +35444,7 @@
       <c r="BZ266" s="39"/>
     </row>
     <row r="267" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A267" s="87">
+      <c r="A267" s="88">
         <v>9</v>
       </c>
       <c r="B267" s="25">
@@ -35490,7 +35494,7 @@
       <c r="P267" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="Q267" s="87">
+      <c r="Q267" s="88">
         <v>9</v>
       </c>
       <c r="R267" s="57"/>
@@ -35556,7 +35560,7 @@
       <c r="BZ267" s="39"/>
     </row>
     <row r="268" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A268" s="87"/>
+      <c r="A268" s="88"/>
       <c r="B268" s="25">
         <v>26</v>
       </c>
@@ -35600,7 +35604,7 @@
       <c r="N268" s="72"/>
       <c r="O268" s="82"/>
       <c r="P268" s="82"/>
-      <c r="Q268" s="87"/>
+      <c r="Q268" s="88"/>
       <c r="R268" s="57"/>
       <c r="S268" s="11">
         <f t="shared" si="196"/>
@@ -35664,7 +35668,7 @@
       <c r="BZ268" s="39"/>
     </row>
     <row r="269" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A269" s="87"/>
+      <c r="A269" s="88"/>
       <c r="B269" s="25">
         <v>27</v>
       </c>
@@ -35708,7 +35712,7 @@
       <c r="N269" s="72"/>
       <c r="O269" s="82"/>
       <c r="P269" s="82"/>
-      <c r="Q269" s="87"/>
+      <c r="Q269" s="88"/>
       <c r="R269" s="57"/>
       <c r="S269" s="11">
         <f t="shared" si="196"/>
@@ -35772,7 +35776,7 @@
       <c r="BZ269" s="39"/>
     </row>
     <row r="270" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A270" s="87">
+      <c r="A270" s="88">
         <v>10</v>
       </c>
       <c r="B270" s="25">
@@ -35822,7 +35826,7 @@
       <c r="P270" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="Q270" s="87">
+      <c r="Q270" s="88">
         <v>10</v>
       </c>
       <c r="R270" s="57"/>
@@ -35888,7 +35892,7 @@
       <c r="BZ270" s="39"/>
     </row>
     <row r="271" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A271" s="87"/>
+      <c r="A271" s="88"/>
       <c r="B271" s="25">
         <v>29</v>
       </c>
@@ -35931,7 +35935,7 @@
       <c r="M271" s="72"/>
       <c r="N271" s="72"/>
       <c r="P271" s="25"/>
-      <c r="Q271" s="87"/>
+      <c r="Q271" s="88"/>
       <c r="R271" s="57"/>
       <c r="S271" s="11">
         <f t="shared" si="196"/>
@@ -35995,7 +35999,7 @@
       <c r="BZ271" s="39"/>
     </row>
     <row r="272" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A272" s="87"/>
+      <c r="A272" s="88"/>
       <c r="B272" s="25">
         <v>30</v>
       </c>
@@ -36038,7 +36042,7 @@
       <c r="M272" s="68"/>
       <c r="N272" s="68"/>
       <c r="P272" s="25"/>
-      <c r="Q272" s="87"/>
+      <c r="Q272" s="88"/>
       <c r="R272" s="57"/>
       <c r="S272" s="11">
         <f t="shared" si="196"/>
@@ -36117,7 +36121,7 @@
     </row>
     <row r="274" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P274" s="25"/>
-      <c r="Q274" s="87">
+      <c r="Q274" s="88">
         <v>1</v>
       </c>
       <c r="R274" s="57"/>
@@ -36162,7 +36166,7 @@
     </row>
     <row r="275" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P275" s="25"/>
-      <c r="Q275" s="87"/>
+      <c r="Q275" s="88"/>
       <c r="R275" s="57"/>
       <c r="U275" s="11">
         <f>U274+6</f>
@@ -36207,7 +36211,7 @@
     </row>
     <row r="276" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P276" s="25"/>
-      <c r="Q276" s="87"/>
+      <c r="Q276" s="88"/>
       <c r="R276" s="57"/>
       <c r="U276" s="11">
         <f>U275+6</f>
@@ -36252,7 +36256,7 @@
     </row>
     <row r="277" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P277" s="25"/>
-      <c r="Q277" s="87">
+      <c r="Q277" s="88">
         <v>2</v>
       </c>
       <c r="R277" s="57"/>
@@ -36299,7 +36303,7 @@
     </row>
     <row r="278" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P278" s="25"/>
-      <c r="Q278" s="87"/>
+      <c r="Q278" s="88"/>
       <c r="R278" s="57"/>
       <c r="U278" s="11">
         <f t="shared" si="209"/>
@@ -36344,7 +36348,7 @@
     </row>
     <row r="279" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P279" s="25"/>
-      <c r="Q279" s="87"/>
+      <c r="Q279" s="88"/>
       <c r="R279" s="57"/>
       <c r="U279" s="11">
         <f t="shared" si="209"/>
@@ -36389,7 +36393,7 @@
     </row>
     <row r="280" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P280" s="25"/>
-      <c r="Q280" s="87">
+      <c r="Q280" s="88">
         <v>3</v>
       </c>
       <c r="R280" s="57"/>
@@ -36436,7 +36440,7 @@
     </row>
     <row r="281" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P281" s="25"/>
-      <c r="Q281" s="87"/>
+      <c r="Q281" s="88"/>
       <c r="R281" s="57"/>
       <c r="U281" s="11">
         <f t="shared" si="209"/>
@@ -36481,7 +36485,7 @@
     </row>
     <row r="282" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P282" s="25"/>
-      <c r="Q282" s="87"/>
+      <c r="Q282" s="88"/>
       <c r="R282" s="57"/>
       <c r="U282" s="11">
         <f t="shared" si="209"/>
@@ -36526,7 +36530,7 @@
     </row>
     <row r="283" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P283" s="25"/>
-      <c r="Q283" s="87">
+      <c r="Q283" s="88">
         <v>4</v>
       </c>
       <c r="R283" s="57"/>
@@ -36573,7 +36577,7 @@
     </row>
     <row r="284" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P284" s="25"/>
-      <c r="Q284" s="87"/>
+      <c r="Q284" s="88"/>
       <c r="R284" s="57"/>
       <c r="U284" s="11">
         <f t="shared" si="209"/>
@@ -36618,7 +36622,7 @@
     </row>
     <row r="285" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P285" s="25"/>
-      <c r="Q285" s="87"/>
+      <c r="Q285" s="88"/>
       <c r="R285" s="57"/>
       <c r="U285" s="11">
         <f t="shared" si="209"/>
@@ -36663,7 +36667,7 @@
     </row>
     <row r="286" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P286" s="25"/>
-      <c r="Q286" s="87">
+      <c r="Q286" s="88">
         <v>5</v>
       </c>
       <c r="R286" s="57"/>
@@ -36710,7 +36714,7 @@
     </row>
     <row r="287" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P287" s="25"/>
-      <c r="Q287" s="87"/>
+      <c r="Q287" s="88"/>
       <c r="R287" s="57"/>
       <c r="U287" s="11">
         <f t="shared" si="209"/>
@@ -36755,7 +36759,7 @@
     </row>
     <row r="288" spans="15:30" x14ac:dyDescent="0.3">
       <c r="P288" s="25"/>
-      <c r="Q288" s="87"/>
+      <c r="Q288" s="88"/>
       <c r="R288" s="57"/>
       <c r="U288" s="11">
         <f t="shared" si="209"/>
@@ -36800,7 +36804,7 @@
     </row>
     <row r="289" spans="16:30" x14ac:dyDescent="0.3">
       <c r="P289" s="25"/>
-      <c r="Q289" s="87">
+      <c r="Q289" s="88">
         <v>6</v>
       </c>
       <c r="R289" s="57"/>
@@ -36847,7 +36851,7 @@
     </row>
     <row r="290" spans="16:30" x14ac:dyDescent="0.3">
       <c r="P290" s="25"/>
-      <c r="Q290" s="87"/>
+      <c r="Q290" s="88"/>
       <c r="R290" s="57"/>
       <c r="U290" s="11">
         <f t="shared" si="209"/>
@@ -36891,7 +36895,7 @@
       </c>
     </row>
     <row r="291" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q291" s="87"/>
+      <c r="Q291" s="88"/>
       <c r="R291" s="57"/>
       <c r="U291" s="11">
         <f t="shared" si="209"/>
@@ -36935,7 +36939,7 @@
       </c>
     </row>
     <row r="292" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q292" s="87">
+      <c r="Q292" s="88">
         <v>7</v>
       </c>
       <c r="R292" s="57"/>
@@ -36981,7 +36985,7 @@
       </c>
     </row>
     <row r="293" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q293" s="87"/>
+      <c r="Q293" s="88"/>
       <c r="R293" s="57"/>
       <c r="U293" s="11">
         <f t="shared" si="209"/>
@@ -37025,7 +37029,7 @@
       </c>
     </row>
     <row r="294" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q294" s="87"/>
+      <c r="Q294" s="88"/>
       <c r="R294" s="57"/>
       <c r="U294" s="11">
         <f t="shared" si="209"/>
@@ -37069,7 +37073,7 @@
       </c>
     </row>
     <row r="295" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q295" s="87">
+      <c r="Q295" s="88">
         <v>8</v>
       </c>
       <c r="R295" s="57"/>
@@ -37115,7 +37119,7 @@
       </c>
     </row>
     <row r="296" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q296" s="87"/>
+      <c r="Q296" s="88"/>
       <c r="R296" s="57"/>
       <c r="U296" s="11">
         <f t="shared" si="209"/>
@@ -37159,7 +37163,7 @@
       </c>
     </row>
     <row r="297" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q297" s="87"/>
+      <c r="Q297" s="88"/>
       <c r="R297" s="57"/>
       <c r="U297" s="11">
         <f>U296+6</f>
@@ -37203,7 +37207,7 @@
       </c>
     </row>
     <row r="298" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q298" s="87">
+      <c r="Q298" s="88">
         <v>9</v>
       </c>
       <c r="R298" s="57"/>
@@ -37249,7 +37253,7 @@
       </c>
     </row>
     <row r="299" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q299" s="87"/>
+      <c r="Q299" s="88"/>
       <c r="R299" s="57"/>
       <c r="U299" s="11">
         <f t="shared" si="211"/>
@@ -37293,7 +37297,7 @@
       </c>
     </row>
     <row r="300" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q300" s="87"/>
+      <c r="Q300" s="88"/>
       <c r="R300" s="57"/>
       <c r="U300" s="11">
         <f t="shared" si="211"/>
@@ -37337,7 +37341,7 @@
       </c>
     </row>
     <row r="301" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q301" s="87">
+      <c r="Q301" s="88">
         <v>10</v>
       </c>
       <c r="R301" s="57"/>
@@ -37383,7 +37387,7 @@
       </c>
     </row>
     <row r="302" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q302" s="87"/>
+      <c r="Q302" s="88"/>
       <c r="R302" s="57"/>
       <c r="U302" s="11">
         <f t="shared" si="211"/>
@@ -37427,7 +37431,7 @@
       </c>
     </row>
     <row r="303" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="Q303" s="87"/>
+      <c r="Q303" s="88"/>
       <c r="R303" s="57"/>
       <c r="U303" s="11">
         <f>U302+6</f>
@@ -37528,16 +37532,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="S242:V242"/>
-    <mergeCell ref="Q264:Q266"/>
-    <mergeCell ref="Q267:Q269"/>
-    <mergeCell ref="Q270:Q272"/>
-    <mergeCell ref="Q274:Q276"/>
-    <mergeCell ref="Q249:Q251"/>
-    <mergeCell ref="Q252:Q254"/>
-    <mergeCell ref="Q255:Q257"/>
-    <mergeCell ref="Q258:Q260"/>
-    <mergeCell ref="Q261:Q263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="Q295:Q297"/>
+    <mergeCell ref="Q298:Q300"/>
     <mergeCell ref="Q301:Q303"/>
     <mergeCell ref="A243:A245"/>
     <mergeCell ref="A246:A248"/>
@@ -37554,11 +37553,16 @@
     <mergeCell ref="Q292:Q294"/>
     <mergeCell ref="Q243:Q245"/>
     <mergeCell ref="Q246:Q248"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="Q295:Q297"/>
-    <mergeCell ref="Q298:Q300"/>
+    <mergeCell ref="S242:V242"/>
+    <mergeCell ref="Q264:Q266"/>
+    <mergeCell ref="Q267:Q269"/>
+    <mergeCell ref="Q270:Q272"/>
+    <mergeCell ref="Q274:Q276"/>
+    <mergeCell ref="Q249:Q251"/>
+    <mergeCell ref="Q252:Q254"/>
+    <mergeCell ref="Q255:Q257"/>
+    <mergeCell ref="Q258:Q260"/>
+    <mergeCell ref="Q261:Q263"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37568,10 +37572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DE83A5-1805-43CC-8E2C-AC521E5068F1}">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38051,52 +38055,57 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>598</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>587</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G31" s="86" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>585</v>
       </c>
-      <c r="G32" s="86" t="s">
+      <c r="G33" s="86" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>583</v>
       </c>
-      <c r="G34" s="86" t="s">
+      <c r="G35" s="86" t="s">
         <v>582</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1" xr:uid="{EADC8842-ABB1-4D6A-A8F5-8EBE1B32E81D}"/>
-    <hyperlink ref="G30" r:id="rId2" xr:uid="{E59BC807-F2AA-4191-BC5F-E74BD522AEE0}"/>
-    <hyperlink ref="G34" r:id="rId3" xr:uid="{FB0BFCAF-101D-4E33-A621-3F6D31C92051}"/>
+    <hyperlink ref="G33" r:id="rId1" xr:uid="{EADC8842-ABB1-4D6A-A8F5-8EBE1B32E81D}"/>
+    <hyperlink ref="G31" r:id="rId2" xr:uid="{E59BC807-F2AA-4191-BC5F-E74BD522AEE0}"/>
+    <hyperlink ref="G35" r:id="rId3" xr:uid="{FB0BFCAF-101D-4E33-A621-3F6D31C92051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId4"/>
